--- a/data/population.xlsx
+++ b/data/population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datasets\fair-trec-2021\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\trec\trec2022-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D86A34-8ABD-4B46-91F4-1FE0099A4105}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F9693-80AF-4808-94BB-2D20DF1F7D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{17CD939C-1F12-451D-A0B7-211AB8D9D4FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1" xr2:uid="{17CD939C-1F12-451D-A0B7-211AB8D9D4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,9 +49,6 @@
     <t>Western Africa</t>
   </si>
   <si>
-    <t>Western Asia+</t>
-  </si>
-  <si>
     <t>Northern Africa</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Sum of Fraction</t>
+  </si>
+  <si>
+    <t>Western Asia</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2EB360C-4C7D-4B97-BB4A-6F818BB18AF4}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2EB360C-4C7D-4B97-BB4A-6F818BB18AF4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -777,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83665857-92E0-43F7-AACC-2519262611AD}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
@@ -790,18 +790,18 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>1110634000</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>1106</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>4298723000</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>742453000</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>616644000</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>38304000</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5">
         <v>7162120106</v>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC06E93-2B39-4B72-953A-7D1E7367C0E3}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -909,19 +909,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1749046000</v>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1062,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>294162000</v>
@@ -1081,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>245707000</v>
@@ -1100,10 +1100,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>210002000</v>
@@ -1119,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>192060000</v>
@@ -1138,10 +1138,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>167387000</v>
@@ -1157,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>155827000</v>
@@ -1176,10 +1176,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>135750000</v>
@@ -1195,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>100404000</v>
@@ -1214,10 +1214,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>64370000</v>
@@ -1233,10 +1233,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>60425000</v>
@@ -1252,10 +1252,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>42517000</v>
@@ -1271,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>38304000</v>
@@ -1290,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>1106</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <f>SUBTOTAL(109,Subregions[Population])</f>
